--- a/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
+++ b/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
@@ -908,7 +908,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="C2">
-        <v>0.5841451125293921</v>
+        <v>0.5854887470607995</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3">
-        <v>0.1575411488075243</v>
+        <v>0.1578770574403762</v>
       </c>
     </row>
     <row r="4">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>0.04064494457507558</v>
+        <v>0.04098085320792744</v>
       </c>
     </row>
     <row r="8">
@@ -1051,33 +1051,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LTDA|LTDA</t>
+          <t>ME|LTDA</t>
         </is>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.001343634531407457</v>
+        <v>0.001007725898555593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ME|LTDA</t>
+          <t>EIRELI|LTDA|ME</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.001007725898555593</v>
+        <v>0.0003359086328518643</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EIRELI|LTDA|ME</t>
+          <t>LTDA|EIRELI</t>
         </is>
       </c>
       <c r="B13">
@@ -1090,7 +1090,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LTDA|EIRELI</t>
+          <t>SA|LTDA|EPP</t>
         </is>
       </c>
       <c r="B14">
@@ -1103,52 +1103,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ME|ME</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2977</v>
       </c>
       <c r="C15">
-        <v>0.0003359086328518643</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SA|LTDA|EPP</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.0003359086328518643</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SA|SA</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0.0003359086328518643</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>2977</v>
-      </c>
-      <c r="C18">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
+++ b/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
@@ -7,10 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="classes primeiro grau" sheetId="1" r:id="rId1"/>
-    <sheet name="classes segundo grau" sheetId="2" r:id="rId2"/>
-    <sheet name="tipo empresario" sheetId="3" r:id="rId3"/>
-    <sheet name="varas" sheetId="4" r:id="rId4"/>
+    <sheet name="assuntos (completo)" sheetId="1" r:id="rId1"/>
+    <sheet name="assuntos (resumido em 'outros')" sheetId="2" r:id="rId2"/>
+    <sheet name="assuntos por ano" sheetId="3" r:id="rId3"/>
+    <sheet name="assuntos por vara" sheetId="4" r:id="rId4"/>
+    <sheet name="varas" sheetId="5" r:id="rId5"/>
+    <sheet name="classes primeiro grau" sheetId="6" r:id="rId6"/>
+    <sheet name="classes segundo grau" sheetId="7" r:id="rId7"/>
+    <sheet name="desfecho" sheetId="8" r:id="rId8"/>
+    <sheet name="tipo empresario" sheetId="9" r:id="rId9"/>
+    <sheet name="tipo empresario polo" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -354,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -363,304 +369,1617 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>classe_1grau</t>
+          <t>assunto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Procedimento Comum Cível</t>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
         </is>
       </c>
       <c r="B2">
-        <v>2605</v>
-      </c>
-      <c r="C2">
-        <v>0.6670934699103713</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dissolução Parcial de Sociedade</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="B3">
-        <v>731</v>
-      </c>
-      <c r="C3">
-        <v>0.1871959026888604</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tutela Cautelar Antecedente</t>
+          <t>Franquia</t>
         </is>
       </c>
       <c r="B4">
-        <v>192</v>
-      </c>
-      <c r="C4">
-        <v>0.04916773367477593</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tutela Antecipada Antecedente</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B5">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>0.0263764404609475</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Compromisso Arbitral</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B6">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>0.01971830985915493</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Produção Antecipada da Prova</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B7">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>0.01843790012804097</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Monitória</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>0.007170294494238156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Execução de Título Extrajudicial</t>
+          <t>Defeito, nulidade ou anulação</t>
         </is>
       </c>
       <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>0.005121638924455826</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incidente de Desconsideração de Personalidade Jurídica</t>
+          <t>Dissolução</t>
         </is>
       </c>
       <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.003585147247119078</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Embargos de Terceiro Cível</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.003329065300896287</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Protesto</t>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
         </is>
       </c>
       <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0.003072983354673495</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Notificação</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>0.002560819462227913</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Interpelação</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.001792573623559539</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Embargos à Execução</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>0.001536491677336748</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oposição</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0.001024327784891165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carta Arbitral</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0.0007682458386683739</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carta Precatória Cível</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0.0007682458386683739</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Contestação em Foro Diverso</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0.0005121638924455825</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Falência de Empresários, Sociedades Empresáriais, Microempresas e Empresas de Pequeno Porte</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0.0002560819462227913</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Incidente de Falsidade Infância e Juventude</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0.0002560819462227913</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tutela Provisória</t>
+          <t>Limitada</t>
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.0002560819462227913</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Tutela de Urgência</t>
         </is>
       </c>
       <c r="B23">
-        <v>3905</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Valor da Execução / Cálculo / Atualização</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Provas em geral</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Direito Autoral</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rescisão do contrato e devolução do dinheiro</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sociedade</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Obrigações</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Desenho Industrial</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Conta de Participação</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Penhora / Depósito / Avaliação</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intimação / Notificação</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Anônima</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Em comum / De fato</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Expedição de alvará judicial</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Direito de Imagem</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Obrigação de Fazer / Não Fazer</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nomeação de administrador provisório</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pagamento</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Compromisso</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Constituição</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Prestação de Serviços</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Aquisição</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Assembléia</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Práticas Abusivas</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nulidade</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Promessa de Compra e Venda</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Recuperação judicial e Falência</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Esbulho / Turbação / Ameaça</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Levantamento de Valor</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Liquidação</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cláusula Penal</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Objetos de cartas precatórias/de ordem</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sustação de Protesto</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Agêncie e Distribuição</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Citação</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Efeito Suspensivo / Impugnação / Embargos à Execução</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Exclusão de associado</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intervenção de Terceiros</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Propriedade</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Representação comercial</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alteração de capital</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Arrendamento Mercantil</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Debêntures</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DIREITO CIVIL</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Eleição</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Enriquecimento sem Causa</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Espécies de Contratos</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fiança</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Locação de Imóvel</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Mandato</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Obrigação de Entregar</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tutela de Evidência</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Administração</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Anulação</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Atos executórios</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Atos Unilaterais</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Depósito</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Diligências</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Expropriação de Bens</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Extinção da Execução</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gestão de Negócios</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Honorários Advocatícios</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Inadimplemento</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Indenização do Prejuízo</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Inexequibilidade do Título / Inexigibilidade da Obrigação</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Liquidação / Cumprimento / Execução</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Multa Cominatória / Astreintes</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Pagamento com Sub-rogação</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Pagamento em Consignação</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Programa de Computador</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Adimplemento e Extinção</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Cheque</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Clandestinos</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Cláusulas Abusivas</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Combustíveis e derivados</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Comodato</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Compensação</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Competência</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Competência da Justiça Estadual</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Contratos Bancários</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Cooperativa</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Dação em Pagamento</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Desconsideração da Personalidade Jurídica</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Despejo por Denúncia Vazia</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DIREITO PROCESSUAL CIVIL E DO TRABALHO</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Doação</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estimatório</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Extinção</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fiscalização</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fusão</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Garantias Constitucionais</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hipoteca</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Honorários Periciais</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Imissão</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Inclusão Indevida em Cadastro de Inadimplentes</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Incorporação Imobiliária</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Interpretação / Revisão de Contrato</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Inventário e Partilha</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mútuo</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oferta e Publicidade</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Pedido de falência</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Perda da Propriedade</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Procuração</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Protesto Indevido de Título</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Quitação</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Remissão das Dívidas</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Títulos de Crédito</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Transação</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Transformação</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tutela Provisória</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo empresário</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Polo ativo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Polo passivo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EIRELI</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EIRELI|EPP</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EIRELI|LTDA|ME</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EIRELI|ME</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EPP</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LTDA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>730</v>
+      </c>
+      <c r="C7">
+        <v>956</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LTDA|EIRELI</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LTDA|EPP</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LTDA|ME</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ME|LTDA</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>265</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SA|LTDA|EPP</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pessoa física ou tipo não identificado</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>5962</v>
+      </c>
+      <c r="C15">
+        <v>4765</v>
+      </c>
+      <c r="D15">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -669,6 +1988,3730 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>assunto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Compra e Venda</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Limitada</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tutela de Urgência</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Valor da Execução / Cálculo / Atualização</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Provas em geral</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Direito Autoral</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rescisão do contrato e devolução do dinheiro</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sociedade</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obrigações</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Desenho Industrial</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Conta de Participação</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Penhora / Depósito / Avaliação</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Assunto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>326</v>
+      </c>
+      <c r="D2">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>307</v>
+      </c>
+      <c r="D3">
+        <v>0.07243983010854177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>239</v>
+      </c>
+      <c r="D4">
+        <v>0.05639452571967909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>233</v>
+      </c>
+      <c r="D5">
+        <v>0.05497876356772062</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>0.05309108069844266</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>214</v>
+      </c>
+      <c r="D7">
+        <v>0.05049551675318546</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>0.04483246814535158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>162</v>
+      </c>
+      <c r="D9">
+        <v>0.03822557810287872</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>0.03539405379896177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>149</v>
+      </c>
+      <c r="D11">
+        <v>0.03515809344030203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>0.03303445021236432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>0.03161868806040585</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>127</v>
+      </c>
+      <c r="D14">
+        <v>0.02996696554978764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>0.02760736196319018</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0.02359603586597452</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>0.02170835299669656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>0.02100047192071732</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>0.01557338367154318</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>0.01486550259556394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>0.01439358187824446</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>0.01344974044360547</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0.01321378008494573</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>0.01250589900896649</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>0.012033978291647</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>0.012033978291647</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>0.01179801793298726</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>0.01109013685700802</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>0.009910335063709298</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>0.009438414346389807</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>0.008966493629070316</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>0.008494572911750826</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>0.00778669183577159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>0.0073147711184521</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>0.00684285040113261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>0.006606890042472864</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>0.006606890042472864</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>0.005899008966493629</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>0.005663048607833884</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>0.005427088249174139</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>0.005427088249174139</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>0.005191127890514393</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>0.004955167531854649</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>0.004483246814535158</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>0.004247286455875413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>0.003303445021236432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>0.002831524303916942</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>0.002595563945257197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0.001887682869277961</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.001887682869277961</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>0.001651722510618216</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>0.001651722510618216</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>0.001415762151958471</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>0.001415762151958471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0.001179801793298726</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0.001179801793298726</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0.001179801793298726</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>0.0009438414346389807</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>0.0009438414346389807</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0.0009438414346389807</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>0.0007078810759792355</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0.0007078810759792355</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.0007078810759792355</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>0.0004719207173194903</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>4238</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Assunto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vara</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>0.04955167531854648</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>207</v>
+      </c>
+      <c r="D3">
+        <v>0.04884379424256725</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>202</v>
+      </c>
+      <c r="D4">
+        <v>0.04766399244926852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>201</v>
+      </c>
+      <c r="D5">
+        <v>0.04742803209060878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>188</v>
+      </c>
+      <c r="D6">
+        <v>0.04436054742803209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>171</v>
+      </c>
+      <c r="D7">
+        <v>0.04034922133081642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>0.04011326097215668</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>0.0386974988201982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>0.02737140160453044</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>0.02619159981123171</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>0.02383199622463426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.02359603586597452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>0.02312411514865503</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0.02241623407267579</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>0.02218027371401604</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>0.02100047192071732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>0.02052855120339783</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>0.0198206701274186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>0.0198206701274186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>0.01887682869277961</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>0.0172251061821614</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>0.01651722510618216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>0.01604530438886267</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>0.01510146295422369</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Liminar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>0.01415762151958471</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>0.01392166116092496</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>0.01297781972628598</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0.01297781972628598</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>0.01179801793298726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>0.01085417649834828</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>0.01061821613968853</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>0.01038225578102879</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>0.009438414346389807</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Apuração de haveres</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>0.009202453987730062</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>0.008730533270410571</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>0.008494572911750826</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>0.00825861255309108</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Franquia</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>0.00825861255309108</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>0.00778669183577159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>0.00778669183577159</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>0.00684285040113261</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>0.006134969325153374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>0.005899008966493629</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Defeito, nulidade ou anulação</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>0.005899008966493629</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>0.005899008966493629</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dissolução</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>0.005427088249174139</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>0.005427088249174139</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0.005191127890514393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>0.004719207173194903</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>0.004483246814535158</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Responsabilidade dos sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>0.004483246814535158</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>0.004483246814535158</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>0.004247286455875413</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>0.004011326097215668</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>0.004011326097215668</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>0.004011326097215668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>0.003775365738555923</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Propriedade Intelectual / Industrial</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>0.003775365738555923</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>0.003775365738555923</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Empresas</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>0.003539405379896177</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>0.003539405379896177</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0.002831524303916942</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>0.002595563945257197</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>0.002595563945257197</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>0.002359603586597452</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0.002359603586597452</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0.002359603586597452</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>0.002359603586597452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Transferência de cotas</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>0.002359603586597452</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Provas</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>0.002123643227937707</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Antecipação de Tutela / Tutela Específica</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>0.001887682869277961</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rescisão / Resolução</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>0.001651722510618216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0.001179801793298726</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Material</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>0.0009438414346389807</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>0.0009438414346389807</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Perdas e Danos</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>0.0007078810759792355</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Indenização por Dano Moral</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0.0004719207173194903</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.0002359603586597452</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>4238</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vara</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1533</v>
+      </c>
+      <c r="C2">
+        <v>0.3616418966737438</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1487</v>
+      </c>
+      <c r="C3">
+        <v>0.3507902807265865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>619</v>
+      </c>
+      <c r="C4">
+        <v>0.1460250058976174</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>599</v>
+      </c>
+      <c r="C5">
+        <v>0.1413069120075489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.0002359046945034206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>4239</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>classe_1grau</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Procedimento Comum Cível</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>2605</v>
+      </c>
+      <c r="C2">
+        <v>0.6670934699103713</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dissolução Parcial de Sociedade</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>731</v>
+      </c>
+      <c r="C3">
+        <v>0.1871959026888604</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tutela Cautelar Antecedente</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>192</v>
+      </c>
+      <c r="C4">
+        <v>0.04916773367477593</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tutela Antecipada Antecedente</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>0.0263764404609475</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Compromisso Arbitral</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>0.01971830985915493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Produção Antecipada da Prova</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>0.01843790012804097</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Monitória</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0.007170294494238156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Execução de Título Extrajudicial</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.005121638924455826</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Incidente de Desconsideração de Personalidade Jurídica</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.003585147247119078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Embargos de Terceiro Cível</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0.003329065300896287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Protesto</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.003072983354673495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Notificação</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.002560819462227913</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interpelação</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.001792573623559539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Embargos à Execução</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.001536491677336748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Oposição</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.001024327784891165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Carta Arbitral</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.0007682458386683739</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Carta Precatória Cível</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0.0007682458386683739</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Contestação em Foro Diverso</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.0005121638924455825</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Falência de Empresários, Sociedades Empresáriais, Microempresas e Empresas de Pequeno Porte</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.0002560819462227913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Incidente de Falsidade Infância e Juventude</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.0002560819462227913</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tutela Provisória</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.0002560819462227913</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>3905</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -906,7 +5949,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>desfecho</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Não reformou</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>359</v>
+      </c>
+      <c r="C2">
+        <v>0.5662460567823344</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Reformou</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <v>0.3186119873817035</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Não conheceram/Prejudicado</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0.07728706624605679</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Parcial</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.03785488958990536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>634</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1116,112 +6254,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Vara</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>1533</v>
-      </c>
-      <c r="C2">
-        <v>0.3616418966737438</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>1487</v>
-      </c>
-      <c r="C3">
-        <v>0.3507902807265865</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>619</v>
-      </c>
-      <c r="C4">
-        <v>0.1460250058976174</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>599</v>
-      </c>
-      <c r="C5">
-        <v>0.1413069120075489</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.0002359046945034206</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>4239</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
+++ b/data-raw/varas-empresariais-frederico/tabelas_varas_empresariais.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>591</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>464</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
@@ -425,27 +425,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Propriedade Intelectual / Industrial</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B7">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B8">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -475,117 +475,117 @@
         </is>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Transferência de cotas</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Provas</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Indenização por Dano Moral</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B19">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compra e Venda</t>
+          <t>Limitada</t>
         </is>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Limitada</t>
+          <t>Provas em geral</t>
         </is>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -595,77 +595,77 @@
         </is>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Valor da Execução / Cálculo / Atualização</t>
+          <t>Direito Autoral</t>
         </is>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Provas em geral</t>
+          <t>Sociedade</t>
         </is>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Direito Autoral</t>
+          <t>Desenho Industrial</t>
         </is>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rescisão do contrato e devolução do dinheiro</t>
+          <t>Obrigações</t>
         </is>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sociedade</t>
+          <t>Rescisão do contrato e devolução do dinheiro</t>
         </is>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Obrigações</t>
+          <t>Intimação / Notificação</t>
         </is>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Desenho Industrial</t>
+          <t>Anônima</t>
         </is>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -675,253 +675,253 @@
         </is>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Penhora / Depósito / Avaliação</t>
+          <t>Em comum / De fato</t>
         </is>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intimação / Notificação</t>
+          <t>Expedição de alvará judicial</t>
         </is>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Anônima</t>
+          <t>Direito de Imagem</t>
         </is>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Em comum / De fato</t>
+          <t>Nomeação de administrador provisório</t>
         </is>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Expedição de alvará judicial</t>
+          <t>Pagamento</t>
         </is>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Direito de Imagem</t>
+          <t>Aquisição</t>
         </is>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Obrigação de Fazer / Não Fazer</t>
+          <t>Compromisso</t>
         </is>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nomeação de administrador provisório</t>
+          <t>Constituição</t>
         </is>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pagamento</t>
+          <t>Prestação de Serviços</t>
         </is>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Obrigação de Fazer / Não Fazer</t>
         </is>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Constituição</t>
+          <t>Práticas Abusivas</t>
         </is>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prestação de Serviços</t>
+          <t>Assembléia</t>
         </is>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aquisição</t>
+          <t>Liquidação</t>
         </is>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Assembléia</t>
+          <t>Nulidade</t>
         </is>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Práticas Abusivas</t>
+          <t>Cláusula Penal</t>
         </is>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nulidade</t>
+          <t>Levantamento de Valor</t>
         </is>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Promessa de Compra e Venda</t>
+          <t>Objetos de cartas precatórias/de ordem</t>
         </is>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Recuperação judicial e Falência</t>
+          <t>Penhora / Depósito / Avaliação</t>
         </is>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Esbulho / Turbação / Ameaça</t>
+          <t>Agêncie e Distribuição</t>
         </is>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Levantamento de Valor</t>
+          <t>Citação</t>
         </is>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Liquidação</t>
+          <t>Efeito Suspensivo / Impugnação / Embargos à Execução</t>
         </is>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cláusula Penal</t>
+          <t>Esbulho / Turbação / Ameaça</t>
         </is>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Objetos de cartas precatórias/de ordem</t>
+          <t>Exclusão de associado</t>
         </is>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sustação de Protesto</t>
+          <t>Intervenção de Terceiros</t>
         </is>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Agêncie e Distribuição</t>
+          <t>Promessa de Compra e Venda</t>
         </is>
       </c>
       <c r="B56">
@@ -931,7 +931,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Citação</t>
+          <t>Representação comercial</t>
         </is>
       </c>
       <c r="B57">
@@ -941,57 +941,57 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Efeito Suspensivo / Impugnação / Embargos à Execução</t>
+          <t>Alteração de capital</t>
         </is>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Exclusão de associado</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intervenção de Terceiros</t>
+          <t>Eleição</t>
         </is>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Propriedade</t>
+          <t>Enriquecimento sem Causa</t>
         </is>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Representação comercial</t>
+          <t>Espécies de Contratos</t>
         </is>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Alteração de capital</t>
+          <t>Fiança</t>
         </is>
       </c>
       <c r="B63">
@@ -1001,7 +1001,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Arrendamento Mercantil</t>
+          <t>Locação de Imóvel</t>
         </is>
       </c>
       <c r="B64">
@@ -1011,7 +1011,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Mandato</t>
         </is>
       </c>
       <c r="B65">
@@ -1021,7 +1021,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DIREITO CIVIL</t>
+          <t>Propriedade</t>
         </is>
       </c>
       <c r="B66">
@@ -1031,7 +1031,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Eleição</t>
+          <t>Recuperação judicial e Falência</t>
         </is>
       </c>
       <c r="B67">
@@ -1041,7 +1041,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Enriquecimento sem Causa</t>
+          <t>Sustação de Protesto</t>
         </is>
       </c>
       <c r="B68">
@@ -1051,7 +1051,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Espécies de Contratos</t>
+          <t>Tutela de Evidência</t>
         </is>
       </c>
       <c r="B69">
@@ -1061,57 +1061,57 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fiança</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Locação de Imóvel</t>
+          <t>Anulação</t>
         </is>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mandato</t>
+          <t>Arrendamento Mercantil</t>
         </is>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Obrigação de Entregar</t>
+          <t>Atos executórios</t>
         </is>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tutela de Evidência</t>
+          <t>Atos Unilaterais</t>
         </is>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Diligências</t>
         </is>
       </c>
       <c r="B75">
@@ -1121,7 +1121,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Anulação</t>
+          <t>DIREITO CIVIL</t>
         </is>
       </c>
       <c r="B76">
@@ -1131,7 +1131,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Atos executórios</t>
+          <t>Extinção da Execução</t>
         </is>
       </c>
       <c r="B77">
@@ -1141,7 +1141,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Atos Unilaterais</t>
+          <t>Gestão de Negócios</t>
         </is>
       </c>
       <c r="B78">
@@ -1151,7 +1151,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Depósito</t>
+          <t>Inadimplemento</t>
         </is>
       </c>
       <c r="B79">
@@ -1161,7 +1161,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Diligências</t>
+          <t>Indenização do Prejuízo</t>
         </is>
       </c>
       <c r="B80">
@@ -1171,7 +1171,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Expropriação de Bens</t>
+          <t>Inexequibilidade do Título / Inexigibilidade da Obrigação</t>
         </is>
       </c>
       <c r="B81">
@@ -1181,7 +1181,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Extinção da Execução</t>
+          <t>Obrigação de Entregar</t>
         </is>
       </c>
       <c r="B82">
@@ -1191,7 +1191,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gestão de Negócios</t>
+          <t>Pagamento com Sub-rogação</t>
         </is>
       </c>
       <c r="B83">
@@ -1201,7 +1201,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Honorários Advocatícios</t>
+          <t>Pagamento em Consignação</t>
         </is>
       </c>
       <c r="B84">
@@ -1211,7 +1211,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Inadimplemento</t>
+          <t>Programa de Computador</t>
         </is>
       </c>
       <c r="B85">
@@ -1221,7 +1221,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Indenização do Prejuízo</t>
+          <t>Valor da Execução / Cálculo / Atualização</t>
         </is>
       </c>
       <c r="B86">
@@ -1231,67 +1231,67 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Inexequibilidade do Título / Inexigibilidade da Obrigação</t>
+          <t>Adimplemento e Extinção</t>
         </is>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Liquidação / Cumprimento / Execução</t>
+          <t>Cheque</t>
         </is>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Multa Cominatória / Astreintes</t>
+          <t>Clandestinos</t>
         </is>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pagamento com Sub-rogação</t>
+          <t>Cláusulas Abusivas</t>
         </is>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pagamento em Consignação</t>
+          <t>Combustíveis e derivados</t>
         </is>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Programa de Computador</t>
+          <t>Comodato</t>
         </is>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Adimplemento e Extinção</t>
+          <t>Compensação</t>
         </is>
       </c>
       <c r="B93">
@@ -1301,7 +1301,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cheque</t>
+          <t>Competência</t>
         </is>
       </c>
       <c r="B94">
@@ -1311,7 +1311,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Clandestinos</t>
+          <t>Competência da Justiça Estadual</t>
         </is>
       </c>
       <c r="B95">
@@ -1321,7 +1321,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cláusulas Abusivas</t>
+          <t>Consórcio</t>
         </is>
       </c>
       <c r="B96">
@@ -1331,7 +1331,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Combustíveis e derivados</t>
+          <t>Contratos Bancários</t>
         </is>
       </c>
       <c r="B97">
@@ -1341,7 +1341,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Comodato</t>
+          <t>Cooperativa</t>
         </is>
       </c>
       <c r="B98">
@@ -1351,7 +1351,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Compensação</t>
+          <t>Dação em Pagamento</t>
         </is>
       </c>
       <c r="B99">
@@ -1361,7 +1361,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Competência</t>
+          <t>Depósito</t>
         </is>
       </c>
       <c r="B100">
@@ -1371,7 +1371,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Competência da Justiça Estadual</t>
+          <t>Desconsideração da Personalidade Jurídica</t>
         </is>
       </c>
       <c r="B101">
@@ -1381,7 +1381,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Consórcio</t>
+          <t>Despejo por Denúncia Vazia</t>
         </is>
       </c>
       <c r="B102">
@@ -1391,7 +1391,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Contratos Bancários</t>
+          <t>DIREITO PROCESSUAL CIVIL E DO TRABALHO</t>
         </is>
       </c>
       <c r="B103">
@@ -1401,7 +1401,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cooperativa</t>
+          <t>Doação</t>
         </is>
       </c>
       <c r="B104">
@@ -1411,7 +1411,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dação em Pagamento</t>
+          <t>Estimatório</t>
         </is>
       </c>
       <c r="B105">
@@ -1421,7 +1421,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Desconsideração da Personalidade Jurídica</t>
+          <t>Extinção</t>
         </is>
       </c>
       <c r="B106">
@@ -1431,7 +1431,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Despejo por Denúncia Vazia</t>
+          <t>Fiscalização</t>
         </is>
       </c>
       <c r="B107">
@@ -1441,7 +1441,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DIREITO PROCESSUAL CIVIL E DO TRABALHO</t>
+          <t>Fusão</t>
         </is>
       </c>
       <c r="B108">
@@ -1451,7 +1451,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Doação</t>
+          <t>Garantias Constitucionais</t>
         </is>
       </c>
       <c r="B109">
@@ -1461,7 +1461,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Estimatório</t>
+          <t>Hipoteca</t>
         </is>
       </c>
       <c r="B110">
@@ -1471,7 +1471,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Extinção</t>
+          <t>Imissão</t>
         </is>
       </c>
       <c r="B111">
@@ -1481,7 +1481,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Fiscalização</t>
+          <t>Inclusão Indevida em Cadastro de Inadimplentes</t>
         </is>
       </c>
       <c r="B112">
@@ -1491,7 +1491,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fusão</t>
+          <t>Incorporação Imobiliária</t>
         </is>
       </c>
       <c r="B113">
@@ -1501,7 +1501,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Garantias Constitucionais</t>
+          <t>Interpretação / Revisão de Contrato</t>
         </is>
       </c>
       <c r="B114">
@@ -1511,7 +1511,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hipoteca</t>
+          <t>Inventário e Partilha</t>
         </is>
       </c>
       <c r="B115">
@@ -1521,7 +1521,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Honorários Periciais</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="B116">
@@ -1531,7 +1531,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Imissão</t>
+          <t>Multa Cominatória / Astreintes</t>
         </is>
       </c>
       <c r="B117">
@@ -1541,7 +1541,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Inclusão Indevida em Cadastro de Inadimplentes</t>
+          <t>Mútuo</t>
         </is>
       </c>
       <c r="B118">
@@ -1551,7 +1551,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Incorporação Imobiliária</t>
+          <t>Oferta e Publicidade</t>
         </is>
       </c>
       <c r="B119">
@@ -1561,7 +1561,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Interpretação / Revisão de Contrato</t>
+          <t>Pedido de falência</t>
         </is>
       </c>
       <c r="B120">
@@ -1571,7 +1571,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Inventário e Partilha</t>
+          <t>Perda da Propriedade</t>
         </is>
       </c>
       <c r="B121">
@@ -1581,7 +1581,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Procuração</t>
         </is>
       </c>
       <c r="B122">
@@ -1591,7 +1591,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mútuo</t>
+          <t>Protesto Indevido de Título</t>
         </is>
       </c>
       <c r="B123">
@@ -1601,7 +1601,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Oferta e Publicidade</t>
+          <t>Quitação</t>
         </is>
       </c>
       <c r="B124">
@@ -1611,7 +1611,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Pedido de falência</t>
+          <t>Remissão das Dívidas</t>
         </is>
       </c>
       <c r="B125">
@@ -1621,7 +1621,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Perda da Propriedade</t>
+          <t>Simples</t>
         </is>
       </c>
       <c r="B126">
@@ -1631,7 +1631,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Procuração</t>
+          <t>Títulos de Crédito</t>
         </is>
       </c>
       <c r="B127">
@@ -1641,7 +1641,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Protesto Indevido de Título</t>
+          <t>Transação</t>
         </is>
       </c>
       <c r="B128">
@@ -1651,7 +1651,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Quitação</t>
+          <t>Transformação</t>
         </is>
       </c>
       <c r="B129">
@@ -1661,65 +1661,10 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Remissão das Dívidas</t>
+          <t>Tutela Provisória</t>
         </is>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Simples</t>
-        </is>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Títulos de Crédito</t>
-        </is>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Transação</t>
-        </is>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Transformação</t>
-        </is>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Tutela Provisória</t>
-        </is>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136">
         <v>1</v>
       </c>
     </row>
@@ -1765,13 +1710,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1781,7 +1726,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1816,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1832,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1845,13 +1790,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>730</v>
+        <v>649</v>
       </c>
       <c r="C7">
-        <v>956</v>
+        <v>870</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1877,10 +1822,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1893,10 +1838,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1912,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1928,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1941,13 +1886,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C13">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1973,13 +1918,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>5962</v>
+        <v>5379</v>
       </c>
       <c r="C15">
-        <v>4765</v>
+        <v>4348</v>
       </c>
       <c r="D15">
-        <v>532</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +1959,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>591</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3">
@@ -2024,7 +1969,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>464</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
@@ -2034,57 +1979,57 @@
         </is>
       </c>
       <c r="B4">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B6">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B7">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Propriedade Intelectual / Industrial</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B8">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B9">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -2094,7 +2039,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -2104,7 +2049,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -2114,117 +2059,117 @@
         </is>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Transferência de cotas</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Provas</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Indenização por Dano Moral</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Compra e Venda</t>
+          <t>Limitada</t>
         </is>
       </c>
       <c r="B22">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Limitada</t>
+          <t>Provas em geral</t>
         </is>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2234,77 +2179,77 @@
         </is>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Valor da Execução / Cálculo / Atualização</t>
+          <t>Direito Autoral</t>
         </is>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Provas em geral</t>
+          <t>Sociedade</t>
         </is>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Direito Autoral</t>
+          <t>Desenho Industrial</t>
         </is>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rescisão do contrato e devolução do dinheiro</t>
+          <t>Obrigações</t>
         </is>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sociedade</t>
+          <t>Rescisão do contrato e devolução do dinheiro</t>
         </is>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Obrigações</t>
+          <t>Intimação / Notificação</t>
         </is>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Desenho Industrial</t>
+          <t>Anônima</t>
         </is>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -2314,22 +2259,27 @@
         </is>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Penhora / Depósito / Avaliação</t>
+          <t>Em comum / De fato</t>
         </is>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Expedição de alvará judicial</t>
+        </is>
+      </c>
       <c r="B34">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2289,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2379,10 +2329,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D2">
-        <v>0.07692307692307693</v>
+        <v>0.07814910025706941</v>
       </c>
     </row>
     <row r="3">
@@ -2397,46 +2347,46 @@
         </is>
       </c>
       <c r="C3">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="D3">
-        <v>0.07243983010854177</v>
+        <v>0.06375321336760925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Franquia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D4">
-        <v>0.05639452571967909</v>
+        <v>0.05475578406169666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>0.05497876356772062</v>
+        <v>0.05424164524421594</v>
       </c>
     </row>
     <row r="6">
@@ -2451,16 +2401,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D6">
-        <v>0.05309108069844266</v>
+        <v>0.0532133676092545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2469,10 +2419,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D7">
-        <v>0.05049551675318546</v>
+        <v>0.04858611825192802</v>
       </c>
     </row>
     <row r="8">
@@ -2487,10 +2437,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8">
-        <v>0.04483246814535158</v>
+        <v>0.04832904884318766</v>
       </c>
     </row>
     <row r="9">
@@ -2505,10 +2455,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>0.03822557810287872</v>
+        <v>0.04113110539845758</v>
       </c>
     </row>
     <row r="10">
@@ -2519,14 +2469,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <v>0.03539405379896177</v>
+        <v>0.03804627249357326</v>
       </c>
     </row>
     <row r="11">
@@ -2537,14 +2487,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C11">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D11">
-        <v>0.03515809344030203</v>
+        <v>0.03624678663239075</v>
       </c>
     </row>
     <row r="12">
@@ -2559,10 +2509,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>0.03303445021236432</v>
+        <v>0.03573264781491003</v>
       </c>
     </row>
     <row r="13">
@@ -2577,10 +2527,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>0.03161868806040585</v>
+        <v>0.03239074550128535</v>
       </c>
     </row>
     <row r="14">
@@ -2595,10 +2545,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D14">
-        <v>0.02996696554978764</v>
+        <v>0.03187660668380463</v>
       </c>
     </row>
     <row r="15">
@@ -2613,10 +2563,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>0.02760736196319018</v>
+        <v>0.02673521850899743</v>
       </c>
     </row>
     <row r="16">
@@ -2631,10 +2581,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>0.02359603586597452</v>
+        <v>0.02519280205655527</v>
       </c>
     </row>
     <row r="17">
@@ -2649,10 +2599,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17">
-        <v>0.02170835299669656</v>
+        <v>0.02287917737789203</v>
       </c>
     </row>
     <row r="18">
@@ -2667,10 +2617,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>0.02100047192071732</v>
+        <v>0.02262210796915167</v>
       </c>
     </row>
     <row r="19">
@@ -2688,7 +2638,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>0.01557338367154318</v>
+        <v>0.01696658097686375</v>
       </c>
     </row>
     <row r="20">
@@ -2706,7 +2656,7 @@
         <v>63</v>
       </c>
       <c r="D20">
-        <v>0.01486550259556394</v>
+        <v>0.01619537275064267</v>
       </c>
     </row>
     <row r="21">
@@ -2724,43 +2674,43 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>0.01439358187824446</v>
+        <v>0.01568123393316195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>0.01344974044360547</v>
+        <v>0.01413881748071979</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>0.01321378008494573</v>
+        <v>0.01362467866323907</v>
       </c>
     </row>
     <row r="24">
@@ -2775,88 +2725,88 @@
         </is>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>0.01250589900896649</v>
+        <v>0.01336760925449871</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>0.012033978291647</v>
+        <v>0.01233933161953728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>0.012033978291647</v>
+        <v>0.0115681233933162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>0.01179801793298726</v>
+        <v>0.0115681233933162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>0.01109013685700802</v>
+        <v>0.0102827763496144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+          <t>Franquia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2865,10 +2815,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>0.009910335063709298</v>
+        <v>0.007969151670951156</v>
       </c>
     </row>
     <row r="30">
@@ -2883,16 +2833,16 @@
         </is>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>0.009438414346389807</v>
+        <v>0.007969151670951156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2901,28 +2851,28 @@
         </is>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>0.008966493629070316</v>
+        <v>0.007712082262210797</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>0.008494572911750826</v>
+        <v>0.007455012853470437</v>
       </c>
     </row>
     <row r="33">
@@ -2933,38 +2883,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>0.00778669183577159</v>
+        <v>0.007197943444730077</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>0.0073147711184521</v>
+        <v>0.006940874035989717</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2973,16 +2923,16 @@
         </is>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>0.00684285040113261</v>
+        <v>0.006683804627249357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2991,34 +2941,34 @@
         </is>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>0.006606890042472864</v>
+        <v>0.006169665809768638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Propriedade Intelectual / Industrial</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>0.006606890042472864</v>
+        <v>0.005912596401028277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3027,28 +2977,28 @@
         </is>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>0.005899008966493629</v>
+        <v>0.005912596401028277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Provas</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>0.005663048607833884</v>
+        <v>0.005398457583547558</v>
       </c>
     </row>
     <row r="40">
@@ -3059,32 +3009,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>0.005427088249174139</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>0.005427088249174139</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="42">
@@ -3099,16 +3049,16 @@
         </is>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>0.005191127890514393</v>
+        <v>0.004884318766066838</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3117,82 +3067,82 @@
         </is>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>0.004955167531854649</v>
+        <v>0.004370179948586119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Indenização por Dano Moral</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>0.004719207173194903</v>
+        <v>0.004370179948586119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Indenização por Dano Moral</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>0.004719207173194903</v>
+        <v>0.004370179948586119</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>0.004483246814535158</v>
+        <v>0.004113110539845758</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>0.004247286455875413</v>
+        <v>0.004113110539845758</v>
       </c>
     </row>
     <row r="48">
@@ -3210,31 +3160,31 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>0.003303445021236432</v>
+        <v>0.003598971722365039</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>0.002831524303916942</v>
+        <v>0.002570694087403599</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3243,70 +3193,70 @@
         </is>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>0.002595563945257197</v>
+        <v>0.002313624678663239</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Defeito, nulidade ou anulação</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C51">
         <v>9</v>
       </c>
       <c r="D51">
-        <v>0.002123643227937707</v>
+        <v>0.002313624678663239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>0.002123643227937707</v>
+        <v>0.002056555269922879</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Defeito, nulidade ou anulação</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>0.002123643227937707</v>
+        <v>0.002056555269922879</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Dissolução</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3315,34 +3265,34 @@
         </is>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>0.002123643227937707</v>
+        <v>0.002056555269922879</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Transferência de cotas</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>0.002123643227937707</v>
+        <v>0.002056555269922879</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dissolução</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3354,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>0.001887682869277961</v>
+        <v>0.002056555269922879</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3369,16 +3319,16 @@
         </is>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>0.001887682869277961</v>
+        <v>0.001799485861182519</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Defeito, nulidade ou anulação</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3390,13 +3340,13 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <v>0.001651722510618216</v>
+        <v>0.001799485861182519</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Defeito, nulidade ou anulação</t>
+          <t>Franquia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3405,16 +3355,16 @@
         </is>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>0.001651722510618216</v>
+        <v>0.001542416452442159</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3426,13 +3376,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>0.001415762151958471</v>
+        <v>0.001542416452442159</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3441,52 +3391,52 @@
         </is>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>0.001415762151958471</v>
+        <v>0.001285347043701799</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62">
-        <v>0.001179801793298726</v>
+        <v>0.001285347043701799</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63">
-        <v>0.001179801793298726</v>
+        <v>0.001285347043701799</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Dissolução</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3495,52 +3445,52 @@
         </is>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>0.001179801793298726</v>
+        <v>0.00102827763496144</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dissolução</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>0.0009438414346389807</v>
+        <v>0.00102827763496144</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.0009438414346389807</v>
+        <v>0.00102827763496144</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Propriedade Intelectual / Industrial</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3549,34 +3499,34 @@
         </is>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>0.0009438414346389807</v>
+        <v>0.0007712082262210797</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>0.0007078810759792355</v>
+        <v>0.0007712082262210797</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Indenização por Dano Moral</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3588,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>0.0007078810759792355</v>
+        <v>0.0007712082262210797</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3603,52 +3553,52 @@
         </is>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>0.0007078810759792355</v>
+        <v>0.0005141388174807198</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.0004719207173194903</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.0002359603586597452</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3660,114 +3610,42 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0.0002359603586597452</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.0002359603586597452</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Perdas e Danos</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3890</v>
       </c>
       <c r="D75">
-        <v>0.0002359603586597452</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Provas</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0.0002359603586597452</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Transferência de cotas</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0.0002359603586597452</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>0.0002359603586597452</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>4238</v>
-      </c>
-      <c r="D79">
         <v>1</v>
       </c>
     </row>
@@ -3778,7 +3656,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3818,10 +3696,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="D2">
-        <v>0.04955167531854648</v>
+        <v>0.07480719794344473</v>
       </c>
     </row>
     <row r="3">
@@ -3836,10 +3714,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="D3">
-        <v>0.04884379424256725</v>
+        <v>0.07017994858611826</v>
       </c>
     </row>
     <row r="4">
@@ -3850,14 +3728,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D4">
-        <v>0.04766399244926852</v>
+        <v>0.06503856041131105</v>
       </c>
     </row>
     <row r="5">
@@ -3868,32 +3746,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C5">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>0.04742803209060878</v>
+        <v>0.06349614395886889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C6">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D6">
-        <v>0.04436054742803209</v>
+        <v>0.05629820051413881</v>
       </c>
     </row>
     <row r="7">
@@ -3904,20 +3782,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C7">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="D7">
-        <v>0.04034922133081642</v>
+        <v>0.05552699228791774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Franquia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3926,10 +3804,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="D8">
-        <v>0.04011326097215668</v>
+        <v>0.0544987146529563</v>
       </c>
     </row>
     <row r="9">
@@ -3944,52 +3822,52 @@
         </is>
       </c>
       <c r="C9">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D9">
-        <v>0.0386974988201982</v>
+        <v>0.05089974293059126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>0.02737140160453044</v>
+        <v>0.04138817480719794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Liminar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D11">
-        <v>0.02619159981123171</v>
+        <v>0.03933161953727506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3998,52 +3876,52 @@
         </is>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="D12">
-        <v>0.02383199622463426</v>
+        <v>0.03856041131105398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Apuração de haveres</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>0.02359603586597452</v>
+        <v>0.03341902313624678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Defeito, nulidade ou anulação</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>0.02312411514865503</v>
+        <v>0.02724935732647815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Propriedade Intelectual / Industrial</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4052,34 +3930,34 @@
         </is>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D15">
-        <v>0.02241623407267579</v>
+        <v>0.02724935732647815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>0.02218027371401604</v>
+        <v>0.02673521850899743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Propriedade Intelectual / Industrial</t>
+          <t>Responsabilidade dos sócios e administradores</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4088,10 +3966,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D17">
-        <v>0.02100047192071732</v>
+        <v>0.02596401028277635</v>
       </c>
     </row>
     <row r="18">
@@ -4106,16 +3984,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>0.02052855120339783</v>
+        <v>0.02416452442159383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Dissolução</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4124,16 +4002,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>0.0198206701274186</v>
+        <v>0.02287917737789203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Defeito, nulidade ou anulação</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4142,34 +4020,34 @@
         </is>
       </c>
       <c r="C20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>0.0198206701274186</v>
+        <v>0.02210796915167095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ingresso e Exclusão dos Sócios na Sociedade</t>
+          <t>Dissolução</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>0.01887682869277961</v>
+        <v>0.02107969151670951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Defeito, nulidade ou anulação</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4178,52 +4056,52 @@
         </is>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>0.0172251061821614</v>
+        <v>0.01439588688946015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>0.01651722510618216</v>
+        <v>0.01388174807197943</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Rescisão / Resolução</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>0.01604530438886267</v>
+        <v>0.01336760925449871</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Defeito, nulidade ou anulação</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4232,34 +4110,34 @@
         </is>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>0.01510146295422369</v>
+        <v>0.01208226221079691</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liminar</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>0.01415762151958471</v>
+        <v>0.01105398457583548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dissolução</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4268,16 +4146,16 @@
         </is>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>0.01392166116092496</v>
+        <v>0.01079691516709512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dissolução</t>
+          <t>Patente</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4286,70 +4164,70 @@
         </is>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>0.01297781972628598</v>
+        <v>0.008740359897172237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Empresas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>0.01297781972628598</v>
+        <v>0.008483290488431876</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Transferência de cotas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>0.01179801793298726</v>
+        <v>0.008226221079691516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>0.01085417649834828</v>
+        <v>0.007197943444730077</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Transferência de cotas</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4358,16 +4236,16 @@
         </is>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>0.01061821613968853</v>
+        <v>0.006683804627249357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Rescisão / Resolução</t>
+          <t>Indenização por Dano Material</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4376,909 +4254,189 @@
         </is>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>0.01038225578102879</v>
+        <v>0.005912596401028277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>0.009438414346389807</v>
+        <v>0.005398457583547558</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Apuração de haveres</t>
+          <t>Antecipação de Tutela / Tutela Específica</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>0.009202453987730062</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Patente</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0.008730533270410571</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dissolução</t>
+          <t>Indenização por Dano Moral</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>0.008494572911750826</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Defeito, nulidade ou anulação</t>
+          <t>Perdas e Danos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>0.00825861255309108</v>
+        <v>0.004627249357326478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Franquia</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>0.00825861255309108</v>
+        <v>0.004370179948586119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Indenização por Dano Material</t>
+          <t>Provas</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>0.00778669183577159</v>
+        <v>0.004370179948586119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
+          <t>Compra e Venda</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
         </is>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>0.00778669183577159</v>
+        <v>0.003856041131105398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Empresas</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
+          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
         </is>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.00684285040113261</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Responsabilidade dos sócios e administradores</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>3890</v>
       </c>
       <c r="D43">
-        <v>0.006134969325153374</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>25</v>
-      </c>
-      <c r="D44">
-        <v>0.005899008966493629</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Defeito, nulidade ou anulação</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>25</v>
-      </c>
-      <c r="D45">
-        <v>0.005899008966493629</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-      <c r="D46">
-        <v>0.005899008966493629</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Dissolução</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>23</v>
-      </c>
-      <c r="D47">
-        <v>0.005427088249174139</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Propriedade Intelectual / Industrial</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>23</v>
-      </c>
-      <c r="D48">
-        <v>0.005427088249174139</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Transferência de cotas</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>22</v>
-      </c>
-      <c r="D49">
-        <v>0.005191127890514393</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Material</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>0.004719207173194903</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Moral</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>0.004719207173194903</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Patente</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>0.004719207173194903</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>0.004719207173194903</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Empresas</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>19</v>
-      </c>
-      <c r="D54">
-        <v>0.004483246814535158</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Responsabilidade dos sócios e administradores</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>19</v>
-      </c>
-      <c r="D55">
-        <v>0.004483246814535158</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Sentença arbitral (artigo 515, inciso VII, CPC)</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>19</v>
-      </c>
-      <c r="D56">
-        <v>0.004483246814535158</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Rescisão / Resolução</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>18</v>
-      </c>
-      <c r="D57">
-        <v>0.004247286455875413</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Empresas</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>17</v>
-      </c>
-      <c r="D58">
-        <v>0.004011326097215668</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Moral</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>17</v>
-      </c>
-      <c r="D59">
-        <v>0.004011326097215668</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Perdas e Danos</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>0.004011326097215668</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Perdas e Danos</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
-      <c r="D61">
-        <v>0.003775365738555923</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Propriedade Intelectual / Industrial</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>16</v>
-      </c>
-      <c r="D62">
-        <v>0.003775365738555923</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Provas</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>0.003775365738555923</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Empresas</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C64">
-        <v>15</v>
-      </c>
-      <c r="D64">
-        <v>0.003539405379896177</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Patente</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C65">
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <v>0.003539405379896177</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Provas</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>0.002831524303916942</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM</t>
-        </is>
-      </c>
-      <c r="C67">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>0.002595563945257197</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Material</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C68">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>0.002595563945257197</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>0.002359603586597452</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Patente</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>0.002359603586597452</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Provas</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>0.002359603586597452</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Transferência de cotas</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>0.002359603586597452</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Transferência de cotas</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>0.002359603586597452</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Provas</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C74">
-        <v>9</v>
-      </c>
-      <c r="D74">
-        <v>0.002123643227937707</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Antecipação de Tutela / Tutela Específica</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C75">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>0.001887682869277961</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Rescisão / Resolução</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>0.001651722510618216</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Perdas e Danos</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>0.001179801793298726</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Material</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>0.0009438414346389807</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Moral</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>0.0009438414346389807</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Perdas e Danos</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>0.0007078810759792355</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Indenização por Dano Moral</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
-        </is>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>0.0004719207173194903</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
-        </is>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0.0002359603586597452</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>4238</v>
-      </c>
-      <c r="D83">
         <v>1</v>
       </c>
     </row>
@@ -5289,7 +4447,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5319,10 +4477,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>1533</v>
+        <v>1970</v>
       </c>
       <c r="C2">
-        <v>0.3616418966737438</v>
+        <v>0.506426735218509</v>
       </c>
     </row>
     <row r="3">
@@ -5332,61 +4490,35 @@
         </is>
       </c>
       <c r="B3">
-        <v>1487</v>
+        <v>1919</v>
       </c>
       <c r="C3">
-        <v>0.3507902807265865</v>
+        <v>0.4933161953727506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
         </is>
       </c>
       <c r="B4">
-        <v>619</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1460250058976174</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2ª VARA EMPRESARIAL E CONFLITOS DE ARBITRAGEM - Foro Central Cível</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B5">
-        <v>599</v>
+        <v>3890</v>
       </c>
       <c r="C5">
-        <v>0.1413069120075489</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2ª Vara Regional de Competência Empresarial e de Conflitos Relacionados à Arbitragem da 1ª RAJ - Foro Especializado da 1ª RAJ</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.0002359046945034206</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>4239</v>
-      </c>
-      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -5397,7 +4529,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5430,7 +4562,7 @@
         <v>2605</v>
       </c>
       <c r="C2">
-        <v>0.6670934699103713</v>
+        <v>0.6696658097686375</v>
       </c>
     </row>
     <row r="3">
@@ -5443,7 +4575,7 @@
         <v>731</v>
       </c>
       <c r="C3">
-        <v>0.1871959026888604</v>
+        <v>0.1879177377892031</v>
       </c>
     </row>
     <row r="4">
@@ -5456,7 +4588,7 @@
         <v>192</v>
       </c>
       <c r="C4">
-        <v>0.04916773367477593</v>
+        <v>0.0493573264781491</v>
       </c>
     </row>
     <row r="5">
@@ -5469,7 +4601,7 @@
         <v>103</v>
       </c>
       <c r="C5">
-        <v>0.0263764404609475</v>
+        <v>0.02647814910025707</v>
       </c>
     </row>
     <row r="6">
@@ -5482,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="C6">
-        <v>0.01971830985915493</v>
+        <v>0.01979434447300771</v>
       </c>
     </row>
     <row r="7">
@@ -5495,7 +4627,7 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>0.01843790012804097</v>
+        <v>0.01850899742930591</v>
       </c>
     </row>
     <row r="8">
@@ -5508,7 +4640,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>0.007170294494238156</v>
+        <v>0.007197943444730077</v>
       </c>
     </row>
     <row r="9">
@@ -5521,188 +4653,162 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0.005121638924455826</v>
+        <v>0.005141388174807198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incidente de Desconsideração de Personalidade Jurídica</t>
+          <t>Embargos de Terceiro Cível</t>
         </is>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.003585147247119078</v>
+        <v>0.003341902313624679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Embargos de Terceiro Cível</t>
+          <t>Protesto</t>
         </is>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.003329065300896287</v>
+        <v>0.003084832904884319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Protesto</t>
+          <t>Notificação</t>
         </is>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0.003072983354673495</v>
+        <v>0.002570694087403599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Notificação</t>
+          <t>Interpelação</t>
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0.002560819462227913</v>
+        <v>0.001799485861182519</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Interpelação</t>
+          <t>Embargos à Execução</t>
         </is>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.001792573623559539</v>
+        <v>0.001542416452442159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Embargos à Execução</t>
+          <t>Oposição</t>
         </is>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.001536491677336748</v>
+        <v>0.00102827763496144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oposição</t>
+          <t>Carta Arbitral</t>
         </is>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.001024327784891165</v>
+        <v>0.0007712082262210797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carta Arbitral</t>
+          <t>Carta Precatória Cível</t>
         </is>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.0007682458386683739</v>
+        <v>0.0007712082262210797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carta Precatória Cível</t>
+          <t>Contestação em Foro Diverso</t>
         </is>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.0007682458386683739</v>
+        <v>0.0005141388174807198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Contestação em Foro Diverso</t>
+          <t>Falência de Empresários, Sociedades Empresáriais, Microempresas e Empresas de Pequeno Porte</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.0005121638924455825</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Falência de Empresários, Sociedades Empresáriais, Microempresas e Empresas de Pequeno Porte</t>
+          <t>Tutela Provisória</t>
         </is>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.0002560819462227913</v>
+        <v>0.0002570694087403599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Incidente de Falsidade Infância e Juventude</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3890</v>
       </c>
       <c r="C21">
-        <v>0.0002560819462227913</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tutela Provisória</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.0002560819462227913</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>3905</v>
-      </c>
-      <c r="C23">
         <v>1</v>
       </c>
     </row>
@@ -5713,7 +4819,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5746,7 +4852,7 @@
         <v>658</v>
       </c>
       <c r="C2">
-        <v>0.7082884822389667</v>
+        <v>0.7152173913043478</v>
       </c>
     </row>
     <row r="3">
@@ -5759,7 +4865,7 @@
         <v>106</v>
       </c>
       <c r="C3">
-        <v>0.1141011840688913</v>
+        <v>0.1152173913043478</v>
       </c>
     </row>
     <row r="4">
@@ -5772,7 +4878,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>0.06135629709364909</v>
+        <v>0.06195652173913044</v>
       </c>
     </row>
     <row r="5">
@@ -5785,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <v>0.03982777179763186</v>
+        <v>0.04021739130434782</v>
       </c>
     </row>
     <row r="6">
@@ -5798,7 +4904,7 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>0.02798708288482239</v>
+        <v>0.02826086956521739</v>
       </c>
     </row>
     <row r="7">
@@ -5811,7 +4917,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.02152852529601722</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="8">
@@ -5824,7 +4930,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.008611410118406888</v>
+        <v>0.008695652173913044</v>
       </c>
     </row>
     <row r="9">
@@ -5837,110 +4943,58 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0.005382131324004306</v>
+        <v>0.005434782608695652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cumprimento de sentença</t>
+          <t>Embargos à Execução</t>
         </is>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.004305705059203444</v>
+        <v>0.00108695652173913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cumprimento de sentença - Lei Arbitral (Lei 9.307/1996)</t>
+          <t>Oposição</t>
         </is>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.003229278794402584</v>
+        <v>0.00108695652173913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cumprimento Provisório de Sentença</t>
+          <t>Protesto</t>
         </is>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.001076426264800861</v>
+        <v>0.00108695652173913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Embargos à Execução</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>920</v>
       </c>
       <c r="C13">
-        <v>0.001076426264800861</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Incidente de Falsidade Infância e Juventude</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.001076426264800861</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Oposição</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.001076426264800861</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Protesto</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.001076426264800861</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>929</v>
-      </c>
-      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -5981,10 +5035,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C2">
-        <v>0.5662460567823344</v>
+        <v>0.5684713375796179</v>
       </c>
     </row>
     <row r="3">
@@ -5994,10 +5048,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>0.3186119873817035</v>
+        <v>0.3184713375796178</v>
       </c>
     </row>
     <row r="4">
@@ -6007,10 +5061,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>0.07728706624605679</v>
+        <v>0.07484076433121019</v>
       </c>
     </row>
     <row r="5">
@@ -6023,7 +5077,7 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.03785488958990536</v>
+        <v>0.03821656050955414</v>
       </c>
     </row>
     <row r="6">
@@ -6033,7 +5087,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6076,10 +5130,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>1743</v>
+        <v>1564</v>
       </c>
       <c r="C2">
-        <v>0.5854887470607995</v>
+        <v>0.5827123695976155</v>
       </c>
     </row>
     <row r="3">
@@ -6089,10 +5143,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="C3">
-        <v>0.1578770574403762</v>
+        <v>0.1546199701937407</v>
       </c>
     </row>
     <row r="4">
@@ -6102,10 +5156,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C4">
-        <v>0.08128988915015116</v>
+        <v>0.08420268256333831</v>
       </c>
     </row>
     <row r="5">
@@ -6115,10 +5169,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C5">
-        <v>0.05979173664763184</v>
+        <v>0.05998509687034277</v>
       </c>
     </row>
     <row r="6">
@@ -6128,10 +5182,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>0.04366812227074236</v>
+        <v>0.04396423248882265</v>
       </c>
     </row>
     <row r="7">
@@ -6141,10 +5195,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>0.04098085320792744</v>
+        <v>0.04284649776453055</v>
       </c>
     </row>
     <row r="8">
@@ -6154,10 +5208,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>0.01041316761840779</v>
+        <v>0.01043219076005961</v>
       </c>
     </row>
     <row r="9">
@@ -6167,10 +5221,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>0.009741350352704065</v>
+        <v>0.01043219076005961</v>
       </c>
     </row>
     <row r="10">
@@ -6180,10 +5234,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.008733624454148471</v>
+        <v>0.008941877794336811</v>
       </c>
     </row>
     <row r="11">
@@ -6193,10 +5247,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.001007725898555593</v>
+        <v>0.0007451564828614009</v>
       </c>
     </row>
     <row r="12">
@@ -6209,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.0003359086328518643</v>
+        <v>0.0003725782414307004</v>
       </c>
     </row>
     <row r="13">
@@ -6222,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.0003359086328518643</v>
+        <v>0.0003725782414307004</v>
       </c>
     </row>
     <row r="14">
@@ -6235,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.0003359086328518643</v>
+        <v>0.0003725782414307004</v>
       </c>
     </row>
     <row r="15">
@@ -6245,7 +5299,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>2977</v>
+        <v>2684</v>
       </c>
       <c r="C15">
         <v>1</v>
